--- a/Figure 2 excel.xlsx
+++ b/Figure 2 excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync\Research\Self-Identity\Study 3\scale-development-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E8F37B-4D3F-4CCA-B26B-778CC8828FFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4A7C39-FF57-4FD0-8F4E-77A200660F6B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="11430" xr2:uid="{220FBCA5-FE09-49F2-869B-658BBE4EF937}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>do not measure how people want to be</t>
   </si>
@@ -47,12 +52,37 @@
   <si>
     <t>Legend:</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">N </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>items</t>
+    </r>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +98,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -77,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,27 +132,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -137,13 +190,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
@@ -193,13 +246,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>61169</xdr:rowOff>
@@ -249,13 +302,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60425</xdr:rowOff>
@@ -305,13 +358,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>59681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>59681</xdr:rowOff>
@@ -361,13 +414,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>58193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>58193</xdr:rowOff>
@@ -417,13 +470,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>56705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>56705</xdr:rowOff>
@@ -473,13 +526,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>55961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>55961</xdr:rowOff>
@@ -529,13 +582,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>55217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>55217</xdr:rowOff>
@@ -585,13 +638,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>87811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>87811</xdr:rowOff>
@@ -641,13 +694,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>10866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>10866</xdr:rowOff>
@@ -697,13 +750,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>91085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>91085</xdr:rowOff>
@@ -753,13 +806,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>128441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>128441</xdr:rowOff>
@@ -809,13 +862,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>165797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>165797</xdr:rowOff>
@@ -865,13 +918,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60425</xdr:rowOff>
@@ -921,13 +974,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -982,13 +1035,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>75456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>46881</xdr:rowOff>
@@ -1043,13 +1096,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>73968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>45393</xdr:rowOff>
@@ -1067,7 +1120,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="1597968"/>
+          <a:off x="1000125" y="1597968"/>
           <a:ext cx="3324225" cy="352425"/>
           <a:chOff x="381000" y="1597968"/>
           <a:chExt cx="3324225" cy="352425"/>
@@ -1170,13 +1223,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>73224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>44649</xdr:rowOff>
@@ -1231,13 +1284,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>71736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>43161</xdr:rowOff>
@@ -1292,13 +1345,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>70992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>42417</xdr:rowOff>
@@ -1316,7 +1369,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="3118992"/>
+          <a:off x="1000125" y="3118992"/>
           <a:ext cx="3333750" cy="352425"/>
           <a:chOff x="381000" y="3118992"/>
           <a:chExt cx="3333750" cy="352425"/>
@@ -1429,13 +1482,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>74712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>46137</xdr:rowOff>
@@ -1453,7 +1506,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="1217712"/>
+          <a:off x="1000125" y="1217712"/>
           <a:ext cx="5162550" cy="352425"/>
           <a:chOff x="381000" y="1266825"/>
           <a:chExt cx="5162550" cy="352425"/>
@@ -1602,13 +1655,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>70248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>41673</xdr:rowOff>
@@ -1626,7 +1679,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="3499248"/>
+          <a:off x="1000125" y="3499248"/>
           <a:ext cx="5162550" cy="352425"/>
           <a:chOff x="381000" y="3757616"/>
           <a:chExt cx="5162550" cy="352425"/>
@@ -1775,13 +1828,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>69504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>40929</xdr:rowOff>
@@ -1799,7 +1852,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="3879504"/>
+          <a:off x="1000125" y="3879504"/>
           <a:ext cx="5162550" cy="352425"/>
           <a:chOff x="381000" y="4170168"/>
           <a:chExt cx="5162550" cy="352425"/>
@@ -1963,13 +2016,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>134691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>77541</xdr:rowOff>
@@ -1987,7 +2040,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="4706691"/>
+          <a:off x="1000125" y="4706691"/>
           <a:ext cx="5162550" cy="514350"/>
           <a:chOff x="381000" y="4995272"/>
           <a:chExt cx="5162550" cy="514350"/>
@@ -2151,13 +2204,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>105372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>76797</xdr:rowOff>
@@ -2175,7 +2228,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="5248872"/>
+          <a:off x="1000125" y="5248872"/>
           <a:ext cx="5162550" cy="352425"/>
           <a:chOff x="381000" y="5553075"/>
           <a:chExt cx="5162550" cy="352425"/>
@@ -2324,13 +2377,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>180084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>151509</xdr:rowOff>
@@ -2348,7 +2401,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="6085584"/>
+          <a:off x="1000125" y="6085584"/>
           <a:ext cx="5162550" cy="352425"/>
           <a:chOff x="381000" y="6394853"/>
           <a:chExt cx="5162550" cy="352425"/>
@@ -2497,13 +2550,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>72480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>43905</xdr:rowOff>
@@ -2521,7 +2574,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="2358480"/>
+          <a:off x="1000125" y="2358480"/>
           <a:ext cx="5162550" cy="352425"/>
           <a:chOff x="381000" y="2505075"/>
           <a:chExt cx="5162550" cy="352425"/>
@@ -2685,13 +2738,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>59681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>58193</xdr:rowOff>
@@ -2741,13 +2794,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>58193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>56705</xdr:rowOff>
@@ -2797,13 +2850,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>58193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>58193</xdr:rowOff>
@@ -2853,13 +2906,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>55961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>55961</xdr:rowOff>
@@ -2909,13 +2962,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>55217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>55217</xdr:rowOff>
@@ -2965,13 +3018,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>10866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>10866</xdr:rowOff>
@@ -3021,13 +3074,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>91085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>91085</xdr:rowOff>
@@ -3077,13 +3130,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>165797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>165797</xdr:rowOff>
@@ -3133,13 +3186,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>58937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>58193</xdr:rowOff>
@@ -3189,13 +3242,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>58193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57449</xdr:rowOff>
@@ -3245,7 +3298,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
@@ -3293,7 +3346,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3341,7 +3394,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>154305</xdr:rowOff>
@@ -3389,7 +3442,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
@@ -3437,7 +3490,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -3485,7 +3538,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -3533,13 +3586,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>170412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390681</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>179937</xdr:rowOff>
@@ -3557,7 +3610,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="11819487"/>
+          <a:off x="1000125" y="11819487"/>
           <a:ext cx="1838481" cy="390525"/>
           <a:chOff x="381000" y="11915775"/>
           <a:chExt cx="1838481" cy="390525"/>
@@ -3652,13 +3705,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>43014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390681</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>52539</xdr:rowOff>
@@ -3676,7 +3729,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="8244039"/>
+          <a:off x="1000125" y="8244039"/>
           <a:ext cx="1838481" cy="390525"/>
           <a:chOff x="381000" y="8429625"/>
           <a:chExt cx="1838481" cy="390525"/>
@@ -3776,13 +3829,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>111177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>149277</xdr:rowOff>
@@ -3800,7 +3853,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="7350177"/>
+          <a:off x="1000125" y="7350177"/>
           <a:ext cx="1847850" cy="419100"/>
           <a:chOff x="381000" y="7620000"/>
           <a:chExt cx="1847850" cy="419100"/>
@@ -3895,13 +3948,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>177108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>15183</xdr:rowOff>
@@ -3919,7 +3972,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="7797108"/>
+          <a:off x="1000125" y="7797108"/>
           <a:ext cx="1847850" cy="419100"/>
           <a:chOff x="381000" y="8054586"/>
           <a:chExt cx="1847850" cy="419100"/>
@@ -4014,13 +4067,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>54771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>83346</xdr:rowOff>
@@ -4038,7 +4091,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="6912771"/>
+          <a:off x="1000125" y="6912771"/>
           <a:ext cx="1838325" cy="409575"/>
           <a:chOff x="381000" y="7210425"/>
           <a:chExt cx="1838325" cy="409575"/>
@@ -4133,13 +4186,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>129336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>167436</xdr:rowOff>
@@ -4157,7 +4210,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="13492911"/>
+          <a:off x="1000125" y="13492911"/>
           <a:ext cx="1847850" cy="419100"/>
           <a:chOff x="381000" y="13554075"/>
           <a:chExt cx="1847850" cy="419100"/>
@@ -4252,13 +4305,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>72930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>101505</xdr:rowOff>
@@ -4276,7 +4329,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="13055505"/>
+          <a:off x="1000125" y="13055505"/>
           <a:ext cx="1838325" cy="409575"/>
           <a:chOff x="381000" y="13144500"/>
           <a:chExt cx="1838325" cy="409575"/>
@@ -4371,13 +4424,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>45099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>45099</xdr:rowOff>
@@ -4395,7 +4448,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="12646674"/>
+          <a:off x="1000125" y="12646674"/>
           <a:ext cx="1809750" cy="381000"/>
           <a:chOff x="381000" y="12778091"/>
           <a:chExt cx="1809750" cy="381000"/>
@@ -4490,13 +4543,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>179340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>26940</xdr:rowOff>
@@ -4514,7 +4567,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="6465840"/>
+          <a:off x="1000125" y="6465840"/>
           <a:ext cx="1847850" cy="419100"/>
           <a:chOff x="381000" y="6791325"/>
           <a:chExt cx="1847850" cy="419100"/>
@@ -4635,13 +4688,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>17268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>17268</xdr:rowOff>
@@ -4659,7 +4712,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="12237843"/>
+          <a:off x="1000125" y="12237843"/>
           <a:ext cx="1809750" cy="381000"/>
           <a:chOff x="381000" y="12325350"/>
           <a:chExt cx="1809750" cy="381000"/>
@@ -4754,13 +4807,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
@@ -4778,7 +4831,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="13939838"/>
+          <a:off x="1000125" y="13939838"/>
           <a:ext cx="1838325" cy="409575"/>
           <a:chOff x="381000" y="13939838"/>
           <a:chExt cx="1838325" cy="409575"/>
@@ -4873,13 +4926,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>18756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390681</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>142581</xdr:rowOff>
@@ -4897,7 +4950,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="11286831"/>
+          <a:off x="1000125" y="11286831"/>
           <a:ext cx="1838481" cy="504825"/>
           <a:chOff x="381000" y="11374052"/>
           <a:chExt cx="1838481" cy="504825"/>
@@ -4992,13 +5045,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>152850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>181425</xdr:rowOff>
@@ -5016,7 +5069,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="10849425"/>
+          <a:off x="1000125" y="10849425"/>
           <a:ext cx="1838325" cy="409575"/>
           <a:chOff x="381000" y="10961500"/>
           <a:chExt cx="1838325" cy="409575"/>
@@ -5111,13 +5164,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>96444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>125019</xdr:rowOff>
@@ -5135,7 +5188,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="10402494"/>
+          <a:off x="1000125" y="10402494"/>
           <a:ext cx="1847850" cy="419100"/>
           <a:chOff x="381000" y="10548948"/>
           <a:chExt cx="1847850" cy="419100"/>
@@ -5230,13 +5283,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>40038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>68613</xdr:rowOff>
@@ -5254,7 +5307,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="9955563"/>
+          <a:off x="1000125" y="9955563"/>
           <a:ext cx="1847850" cy="419100"/>
           <a:chOff x="381000" y="10117346"/>
           <a:chExt cx="1847850" cy="419100"/>
@@ -5349,13 +5402,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>174132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>12207</xdr:rowOff>
@@ -5373,7 +5426,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="9518157"/>
+          <a:off x="1000125" y="9518157"/>
           <a:ext cx="1838325" cy="409575"/>
           <a:chOff x="381000" y="9696450"/>
           <a:chExt cx="1838325" cy="409575"/>
@@ -5468,13 +5521,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>117726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>146301</xdr:rowOff>
@@ -5492,7 +5545,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="9080751"/>
+          <a:off x="1000125" y="9080751"/>
           <a:ext cx="1838325" cy="409575"/>
           <a:chOff x="381000" y="9292242"/>
           <a:chExt cx="1838325" cy="409575"/>
@@ -5587,13 +5640,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>80370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390681</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>89895</xdr:rowOff>
@@ -5611,7 +5664,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="8662395"/>
+          <a:off x="1000125" y="8662395"/>
           <a:ext cx="1838481" cy="390525"/>
           <a:chOff x="381000" y="8879690"/>
           <a:chExt cx="1838481" cy="390525"/>
@@ -5706,13 +5759,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>104628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>152253</xdr:rowOff>
@@ -5730,7 +5783,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="5629128"/>
+          <a:off x="1000125" y="5629128"/>
           <a:ext cx="3886200" cy="428625"/>
           <a:chOff x="381000" y="5905801"/>
           <a:chExt cx="3886200" cy="428625"/>
@@ -5871,13 +5924,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>68760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>106860</xdr:rowOff>
@@ -5895,7 +5948,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="381000" y="4259760"/>
+          <a:off x="1000125" y="4259760"/>
           <a:ext cx="3876675" cy="419100"/>
           <a:chOff x="381000" y="4572000"/>
           <a:chExt cx="3876675" cy="419100"/>
@@ -6036,13 +6089,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6060,7 +6113,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2438400" y="523875"/>
+          <a:off x="3057525" y="523875"/>
           <a:ext cx="1828800" cy="428625"/>
           <a:chOff x="2438400" y="523875"/>
           <a:chExt cx="1828800" cy="428625"/>
@@ -6151,6 +6204,372 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Rechthoek: afgeronde hoeken 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EFA108-3EB4-4283-B8B7-DF9CF28C925B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571499" y="447675"/>
+          <a:ext cx="371475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>14 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rechthoek: afgeronde hoeken 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC6D659-F783-435B-9730-1952D432D7D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561974" y="857250"/>
+          <a:ext cx="371475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Rechthoek: afgeronde hoeken 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AA6842-9CF7-457B-AE15-77CE2DCB8298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="1247775"/>
+          <a:ext cx="361950" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>30</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="Rechthoek: afgeronde hoeken 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DC228F-57A3-46E1-93B7-F94B9C493C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581024" y="1628775"/>
+          <a:ext cx="371475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>57</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="Rechthoek: afgeronde hoeken 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CC4040-FBC6-48C4-B0DA-DB09F0741A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2009775"/>
+          <a:ext cx="361950" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="Rechthoek: afgeronde hoeken 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711C998E-EF30-4533-BA77-66A8F3CBC9FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2390775"/>
+          <a:ext cx="361950" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>23</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6453,17 +6872,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00783381-1033-4382-B2D3-89C44ADDCACF}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="B1:K55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B1" sqref="B1:L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -6471,21 +6894,30 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -6493,10 +6925,10 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -6504,10 +6936,10 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -6515,10 +6947,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -6526,10 +6958,10 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -6537,10 +6969,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -6548,10 +6980,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -6559,10 +6991,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -6570,10 +7002,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -6581,10 +7013,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -6592,10 +7024,10 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -6603,10 +7035,10 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -6614,10 +7046,10 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -6625,10 +7057,10 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -6636,10 +7068,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6647,10 +7079,10 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6658,10 +7090,10 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6669,10 +7101,10 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6680,10 +7112,10 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -6691,10 +7123,10 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6702,10 +7134,10 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6713,10 +7145,10 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6724,10 +7156,10 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6735,10 +7167,10 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6746,10 +7178,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6757,10 +7189,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -6768,10 +7200,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -6779,10 +7211,10 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -6790,10 +7222,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -6801,10 +7233,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6812,10 +7244,10 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -6823,10 +7255,10 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6834,10 +7266,10 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -6845,10 +7277,10 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -6856,10 +7288,10 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -6867,10 +7299,10 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -6878,10 +7310,10 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -6889,10 +7321,10 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -6900,153 +7332,158 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+    <row r="42" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+    <row r="43" spans="3:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="G43" s="5" t="s">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="I43" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="G45" s="6" t="s">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="I45" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="G47" s="5" t="s">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="I47" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="G49" s="6" t="s">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="I49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G51" s="5" t="s">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I51" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F53" s="1"/>
-      <c r="G53" s="7" t="s">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H53" s="1"/>
+      <c r="I53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="3"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+    <row r="54" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="3"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="3:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G53:I54"/>
-    <mergeCell ref="G43:I44"/>
-    <mergeCell ref="G45:I46"/>
-    <mergeCell ref="G47:I48"/>
-    <mergeCell ref="G49:I50"/>
-    <mergeCell ref="G51:I52"/>
+  <mergeCells count="9">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I53:K54"/>
+    <mergeCell ref="I43:K44"/>
+    <mergeCell ref="I45:K46"/>
+    <mergeCell ref="I47:K48"/>
+    <mergeCell ref="I49:K50"/>
+    <mergeCell ref="I51:K52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
